--- a/biology/Zoologie/Brachionus_rotundiformis/Brachionus_rotundiformis.xlsx
+++ b/biology/Zoologie/Brachionus_rotundiformis/Brachionus_rotundiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachionus rotundiformis est une espèce de rotifères de la famille des Brachionidae[1]. Elle présente un intérêt particulier en raison de son utilisation en aquaculture[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachionus rotundiformis est une espèce de rotifères de la famille des Brachionidae. Elle présente un intérêt particulier en raison de son utilisation en aquaculture.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première description de l'espèce remonte à 1921, mais elle n'est reconnue par la communauté scientifique que depuis 1995[1]. Elle est très proche de Brachionus plicatilis, dont elle se distingue par des critères morphologiques[3] et génotypiques[4]. La différenciation morphologique peut se faire à l'aide d'un microscope optique. La taille moyenne de B. rotundiformis est  plus petite que celle de l'autre espèce, et sa cuticule souple (ou  lorica[5]) présente des épines pointues, alors qu'elles sont moins nettes chez B. plicatilis[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première description de l'espèce remonte à 1921, mais elle n'est reconnue par la communauté scientifique que depuis 1995. Elle est très proche de Brachionus plicatilis, dont elle se distingue par des critères morphologiques et génotypiques. La différenciation morphologique peut se faire à l'aide d'un microscope optique. La taille moyenne de B. rotundiformis est  plus petite que celle de l'autre espèce, et sa cuticule souple (ou  lorica) présente des épines pointues, alors qu'elles sont moins nettes chez B. plicatilis. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Intérêt pratique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachionus rotundiformis peut être produit en masse dans les écloseries marines[2],[7]. L'animal supporte une large gamme de salinité de l'eau[3], et se reproduit rapidement par parthénogénèse cyclique, en alternance avec une reproduction sexuée qui produit des cystes, très précieux pour la conservation des souches[6],[8]. Il est particulièrement adapté aux eaux chaudes (28-35 °C). Il peut être nourri avec des cultures d'algues unicellulaires (Chlorella, par exemple), ou de la levure de boulanger[9]. Distribué vivant, il est utilisé pour l'alimentation des premiers stades larvaires de nombreuses espèces marines d'intérêt aquacole ou aquariophile, qui peuvent difficilement ingérer B. plicatilis dès l'ouverture de la bouche[10]. Il sert également d'animal-test en écotoxicologie[11],[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachionus rotundiformis peut être produit en masse dans les écloseries marines,. L'animal supporte une large gamme de salinité de l'eau, et se reproduit rapidement par parthénogénèse cyclique, en alternance avec une reproduction sexuée qui produit des cystes, très précieux pour la conservation des souches,. Il est particulièrement adapté aux eaux chaudes (28-35 °C). Il peut être nourri avec des cultures d'algues unicellulaires (Chlorella, par exemple), ou de la levure de boulanger. Distribué vivant, il est utilisé pour l'alimentation des premiers stades larvaires de nombreuses espèces marines d'intérêt aquacole ou aquariophile, qui peuvent difficilement ingérer B. plicatilis dès l'ouverture de la bouche. Il sert également d'animal-test en écotoxicologie,.
 </t>
         </is>
       </c>
